--- a/medicine/Psychotrope/Côtes-du-jura/Côtes-du-jura.xlsx
+++ b/medicine/Psychotrope/Côtes-du-jura/Côtes-du-jura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-jura</t>
+          <t>Côtes-du-jura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les côtes-du-jura[N 1] sont des vins d'appellation d'origine contrôlée produits dans le vignoble du Jura, constituant en 2012 la plus étendue des appellations jurassiennes en regroupant 105 communes sur une superficie totale de 640 ha. Elle s'étend du nord au sud du vignoble, ce qui lui confère un grand nombre de contrastes de terroirs : elle est une des rares appellations à produire tous les types de vin[3].
+Les côtes-du-jura[N 1] sont des vins d'appellation d'origine contrôlée produits dans le vignoble du Jura, constituant en 2012 la plus étendue des appellations jurassiennes en regroupant 105 communes sur une superficie totale de 640 ha. Elle s'étend du nord au sud du vignoble, ce qui lui confère un grand nombre de contrastes de terroirs : elle est une des rares appellations à produire tous les types de vin.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-jura</t>
+          <t>Côtes-du-jura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-jura</t>
+          <t>Côtes-du-jura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,8 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire d'appellation
-Communes d'Abergement-le-Grand, Abergement-le-Petit, Aiglepierre, Arbois, Arlay, Les Arsures, L'Aubépin, Augea, Aumont, Balanod, Baume-les-Messieurs, Beaufort, Bersaillin, Blois-sur-Seille, Brainans, Bréry, Buvilly, Césancey, Champagne-sur-Loue, La Chapelle-sur-Furieuse, Château-Chalon, Chazelles, Chevreaux, Chille, Chilly-le-Vignoble, Conliège, Courbouzon, Cousance, Cramans, Cuisia, Darbonnay, Digna, Domblans, L'Etoile, Frébuans, Frontenay, Gevingey, Gizia, Grange-de-Vaivre, Grozon, Grusse, Ladoye-sur-Seille, Lavigny, Lons-le-Saunier, Le Louverot, Macornay, Mantry, Marnoz, Mathenay, Maynal, Menétru-le-Vignoble, Mesnay, Messia-sur-Sorne, Miéry, Moiron, Molamboz, Monay, Montagna-le-Reconduit, Montaigu, Montain, Montholier, Montigny-lès-Arsures, Montmorot, Mouchard, Nanc-lès-Saint-Amour, Nevy-sur-Seille, Orbagna, Pagnoz, Pannessières, Passenans, Perrigny, Le Pin, Plainoiseau, Les Planches-près-Arbois, Poligny, Port-Lesney, Pretin, Pupillin, Quintigny, Revigny, Rotalier, Ruffey-sur-Seille, Saint-Amour, Saint-Cyr-Montmalin, Saint-Didier, Saint-Germain-lès-Arlay, Saint-Jean-d'Etreux, Saint-Lamain, Saint-Laurent-la-Roche, Saint-Lothain, Sainte-Agnès, Salins-les-Bains, Sellières, Toulouse-le-Château, Tourmont, Trenal, Vadans, Vaux-sur-Poligny, Vercia, Vernantois, Le Vernois, Villeneuve-sous-Pymont, Villette-lès-Arbois. Vincelles, Voiteur.
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communes d'Abergement-le-Grand, Abergement-le-Petit, Aiglepierre, Arbois, Arlay, Les Arsures, L'Aubépin, Augea, Aumont, Balanod, Baume-les-Messieurs, Beaufort, Bersaillin, Blois-sur-Seille, Brainans, Bréry, Buvilly, Césancey, Champagne-sur-Loue, La Chapelle-sur-Furieuse, Château-Chalon, Chazelles, Chevreaux, Chille, Chilly-le-Vignoble, Conliège, Courbouzon, Cousance, Cramans, Cuisia, Darbonnay, Digna, Domblans, L'Etoile, Frébuans, Frontenay, Gevingey, Gizia, Grange-de-Vaivre, Grozon, Grusse, Ladoye-sur-Seille, Lavigny, Lons-le-Saunier, Le Louverot, Macornay, Mantry, Marnoz, Mathenay, Maynal, Menétru-le-Vignoble, Mesnay, Messia-sur-Sorne, Miéry, Moiron, Molamboz, Monay, Montagna-le-Reconduit, Montaigu, Montain, Montholier, Montigny-lès-Arsures, Montmorot, Mouchard, Nanc-lès-Saint-Amour, Nevy-sur-Seille, Orbagna, Pagnoz, Pannessières, Passenans, Perrigny, Le Pin, Plainoiseau, Les Planches-près-Arbois, Poligny, Port-Lesney, Pretin, Pupillin, Quintigny, Revigny, Rotalier, Ruffey-sur-Seille, Saint-Amour, Saint-Cyr-Montmalin, Saint-Didier, Saint-Germain-lès-Arlay, Saint-Jean-d'Etreux, Saint-Lamain, Saint-Laurent-la-Roche, Saint-Lothain, Sainte-Agnès, Salins-les-Bains, Sellières, Toulouse-le-Château, Tourmont, Trenal, Vadans, Vaux-sur-Poligny, Vercia, Vernantois, Le Vernois, Villeneuve-sous-Pymont, Villette-lès-Arbois. Vincelles, Voiteur.
 </t>
         </is>
       </c>
@@ -552,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-jura</t>
+          <t>Côtes-du-jura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +589,9 @@
           <t>Les vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			AOC Côtes-du-jura, chardonnay
